--- a/data/tables template.xlsx
+++ b/data/tables template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\uitm-sta404-online-manual\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E19F73-80DA-401C-88F1-4A656F91214F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F802FE67-A13F-4EBB-B4B3-B6695C89B3B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1020" yWindow="10" windowWidth="13560" windowHeight="13460" xr2:uid="{EDE029AD-2A38-4D3B-99A4-B6F68D71DAA6}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12060" windowHeight="13460" xr2:uid="{EDE029AD-2A38-4D3B-99A4-B6F68D71DAA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="38">
   <si>
     <t/>
   </si>
@@ -107,9 +107,6 @@
     <t>Equal variances not assumed</t>
   </si>
   <si>
-    <t>Travel Time</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -126,21 +123,49 @@
   </si>
   <si>
     <t>(2) 1.6 liters</t>
+  </si>
+  <si>
+    <t>Test value =0</t>
+  </si>
+  <si>
+    <t>Sig.(2-tailed)</t>
+  </si>
+  <si>
+    <t>Mean difference</t>
+  </si>
+  <si>
+    <t>90% confidence interval of the difference</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>upper</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="###0.00"/>
     <numFmt numFmtId="165" formatCode="###0"/>
     <numFmt numFmtId="166" formatCode="###0.000"/>
     <numFmt numFmtId="167" formatCode="###0.00000"/>
     <numFmt numFmtId="168" formatCode="###0.0000"/>
-    <numFmt numFmtId="173" formatCode="0.00000"/>
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,6 +205,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -189,7 +227,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -212,81 +250,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="167" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="173" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -294,10 +409,47 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="5" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="174" fontId="8" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -616,10 +768,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A8B001D-EDD2-4231-9DA0-FC790BBB656B}">
-  <dimension ref="E7:P46"/>
+  <dimension ref="E7:P53"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C21" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D38" workbookViewId="0">
+      <selection activeCell="J60" sqref="J60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -630,429 +782,518 @@
   </cols>
   <sheetData>
     <row r="7" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="5:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="7" t="s">
+      <c r="F8" s="25"/>
+      <c r="G8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J8" s="7" t="s">
+      <c r="J8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="7">
         <v>8.2899999999999991</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="6">
         <v>7</v>
       </c>
-      <c r="I9" s="14">
+      <c r="I9" s="8">
         <v>3.2509999999999999</v>
       </c>
-      <c r="J9" s="14">
+      <c r="J9" s="8">
         <v>1.2290000000000001</v>
       </c>
-      <c r="K9" s="2"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E10" s="10"/>
-      <c r="F10" s="9" t="s">
+      <c r="E10" s="22"/>
+      <c r="F10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="7">
         <v>5.86</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="6">
         <v>7</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="8">
         <v>3.2370000000000001</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="8">
         <v>1.2230000000000001</v>
       </c>
-      <c r="K10" s="2"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="15" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="2"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="24"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="1"/>
     </row>
     <row r="16" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="F16" s="5"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="25"/>
+      <c r="G16" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6" t="s">
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="M16" s="6" t="s">
+      <c r="M16" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="N16" s="6" t="s">
+      <c r="N16" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="O16" s="2"/>
+      <c r="O16" s="1"/>
     </row>
     <row r="17" spans="5:15" ht="42.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="6" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="H17" s="6" t="s">
+      <c r="H17" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="J17" s="6" t="s">
+      <c r="J17" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="2"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="1"/>
     </row>
     <row r="18" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="7" t="s">
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="K18" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="2"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="20"/>
+      <c r="N18" s="20"/>
+      <c r="O18" s="1"/>
     </row>
     <row r="19" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H19" s="8">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="I19" s="8">
+        <v>0.78200000000000003</v>
+      </c>
+      <c r="J19" s="9"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="8">
+        <v>3.1040000000000001</v>
+      </c>
+      <c r="M19" s="6">
+        <v>6</v>
+      </c>
+      <c r="N19" s="8">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="O19" s="1"/>
+    </row>
+    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="1"/>
+    </row>
+    <row r="27" spans="5:15" ht="26" x14ac:dyDescent="0.35">
+      <c r="E27" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J27" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" s="1"/>
+    </row>
+    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E28" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="G19" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="14">
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I19" s="14">
-        <v>0.78200000000000003</v>
-      </c>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14">
-        <v>3.1040000000000001</v>
-      </c>
-      <c r="M19" s="12">
-        <v>6</v>
-      </c>
-      <c r="N19" s="14">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="O19" s="2"/>
-    </row>
-    <row r="26" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="2"/>
-    </row>
-    <row r="27" spans="5:15" ht="26" x14ac:dyDescent="0.35">
-      <c r="E27" s="25" t="s">
+      <c r="F28" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F27" s="26"/>
-      <c r="G27" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" s="2"/>
-    </row>
-    <row r="28" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E28" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F28" s="11" t="s">
+      <c r="G28" s="6">
+        <v>12</v>
+      </c>
+      <c r="H28" s="17">
+        <v>30.933299999999999</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2.85954</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.82547999999999999</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
+      <c r="E29" s="22"/>
+      <c r="F29" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="G28" s="12">
+      <c r="G29" s="6">
+        <v>15</v>
+      </c>
+      <c r="H29" s="17">
+        <v>37.04</v>
+      </c>
+      <c r="I29" s="9">
+        <v>2.6256400000000002</v>
+      </c>
+      <c r="J29" s="18">
+        <v>0.67793999999999999</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="1"/>
+    </row>
+    <row r="34" spans="5:16" ht="32" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="F34" s="25"/>
+      <c r="G34" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="20"/>
+      <c r="M34" s="20"/>
+      <c r="N34" s="20"/>
+      <c r="O34" s="20"/>
+      <c r="P34" s="1"/>
+    </row>
+    <row r="35" spans="5:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="25"/>
+      <c r="F35" s="25"/>
+      <c r="G35" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="J35" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="K35" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="M35" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="24">
-        <v>30.933299999999999</v>
-      </c>
-      <c r="I28" s="15">
-        <v>2.85954</v>
-      </c>
-      <c r="J28" s="15">
-        <v>0.82547999999999999</v>
-      </c>
-      <c r="K28" s="2"/>
-    </row>
-    <row r="29" spans="5:15" x14ac:dyDescent="0.35">
-      <c r="E29" s="10"/>
-      <c r="F29" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="G29" s="12">
-        <v>15</v>
-      </c>
-      <c r="H29" s="24">
-        <v>37.04</v>
-      </c>
-      <c r="I29" s="15">
-        <v>2.6256400000000002</v>
-      </c>
-      <c r="J29" s="27">
-        <v>0.67793999999999999</v>
-      </c>
-      <c r="K29" s="2"/>
-    </row>
-    <row r="33" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2"/>
-    </row>
-    <row r="34" spans="5:16" ht="32" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E34" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34" s="5"/>
-      <c r="G34" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="2"/>
-    </row>
-    <row r="35" spans="5:16" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="I35" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="J35" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L35" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="M35" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="N35" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="O35" s="6"/>
-      <c r="P35" s="2"/>
+      <c r="O35" s="20"/>
+      <c r="P35" s="1"/>
     </row>
     <row r="36" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-      <c r="N36" s="7" t="s">
+      <c r="E36" s="25"/>
+      <c r="F36" s="25"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="20"/>
+      <c r="M36" s="20"/>
+      <c r="N36" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O36" s="7" t="s">
+      <c r="O36" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P36" s="2"/>
+      <c r="P36" s="1"/>
     </row>
     <row r="37" spans="5:16" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="E37" s="8" t="str">
+      <c r="E37" s="21" t="str">
         <f>E28</f>
         <v>Petrol Consumption</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F37" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="8">
         <v>0.127</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="8">
         <v>0.72399999999999998</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="8">
         <v>-5.7729999999999997</v>
       </c>
-      <c r="J37" s="28">
+      <c r="J37" s="19">
         <v>25</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="10">
         <v>0</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="9">
         <v>-6.1066700000000003</v>
       </c>
-      <c r="M37" s="27">
+      <c r="M37" s="18">
         <v>1.05772</v>
       </c>
-      <c r="N37" s="14"/>
-      <c r="O37" s="14"/>
-      <c r="P37" s="2"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="1"/>
     </row>
     <row r="38" spans="5:16" ht="37.5" x14ac:dyDescent="0.35">
-      <c r="E38" s="10"/>
-      <c r="F38" s="9" t="s">
+      <c r="E38" s="22"/>
+      <c r="F38" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="14">
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="8">
         <v>-5.7169999999999996</v>
       </c>
-      <c r="J38" s="14">
+      <c r="J38" s="8">
         <v>22.721</v>
       </c>
-      <c r="K38" s="14">
+      <c r="K38" s="8">
         <v>0</v>
       </c>
-      <c r="L38" s="17">
+      <c r="L38" s="11">
         <v>-6.1066700000000003</v>
       </c>
-      <c r="M38" s="15">
+      <c r="M38" s="9">
         <v>1.0681799999999999</v>
       </c>
-      <c r="N38" s="14"/>
-      <c r="O38" s="14"/>
-      <c r="P38" s="2"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="1"/>
     </row>
     <row r="44" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="4"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
+      <c r="J44" s="2"/>
     </row>
     <row r="45" spans="5:16" ht="26" x14ac:dyDescent="0.35">
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="G45" s="20" t="s">
+      <c r="G45" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="H45" s="20" t="s">
+      <c r="H45" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="I45" s="20" t="s">
+      <c r="I45" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="J45" s="20" t="s">
+      <c r="J45" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="46" spans="5:16" x14ac:dyDescent="0.35">
-      <c r="F46" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" s="22">
-        <v>12</v>
-      </c>
-      <c r="H46" s="23">
-        <v>35.958300000000001</v>
-      </c>
-      <c r="I46" s="23">
-        <v>2.1790099999999999</v>
-      </c>
-      <c r="J46" s="23">
-        <v>0.62902999999999998</v>
+      <c r="F46" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G46" s="16">
+        <v>28</v>
+      </c>
+      <c r="H46" s="41">
+        <v>14.3</v>
+      </c>
+      <c r="I46" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="38">
+        <v>0.4914</v>
+      </c>
+    </row>
+    <row r="50" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F50" s="28"/>
+      <c r="G50" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
+      <c r="L50" s="31"/>
+    </row>
+    <row r="51" spans="6:12" ht="26" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F51" s="32"/>
+      <c r="G51" s="28" t="s">
+        <v>9</v>
+      </c>
+      <c r="H51" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="I51" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="J51" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="K51" s="34" t="s">
+        <v>32</v>
+      </c>
+      <c r="L51" s="35"/>
+    </row>
+    <row r="52" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F52" s="36"/>
+      <c r="G52" s="36"/>
+      <c r="H52" s="36"/>
+      <c r="I52" s="40"/>
+      <c r="J52" s="40"/>
+      <c r="K52" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="L52" s="37" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="6:12" x14ac:dyDescent="0.35">
+      <c r="F53" s="33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="37">
+        <v>4.2169999999999996</v>
+      </c>
+      <c r="H53" s="37">
+        <v>29</v>
+      </c>
+      <c r="I53" s="37">
+        <v>0</v>
+      </c>
+      <c r="J53" s="37">
+        <v>11.090669999999999</v>
+      </c>
+      <c r="K53" s="37">
+        <v>6.6219000000000001</v>
+      </c>
+      <c r="L53" s="37">
+        <v>15.5595</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="37">
+    <mergeCell ref="F50:F52"/>
+    <mergeCell ref="G50:L50"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="H51:H52"/>
+    <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J51:J52"/>
+    <mergeCell ref="K51:L51"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E15:N15"/>
+    <mergeCell ref="E16:F18"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="L16:L18"/>
+    <mergeCell ref="M16:M18"/>
+    <mergeCell ref="N16:N18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H17:H18"/>
+    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:F27"/>
     <mergeCell ref="M35:M36"/>
     <mergeCell ref="N35:O35"/>
     <mergeCell ref="E37:E38"/>
@@ -1067,22 +1308,6 @@
     <mergeCell ref="J35:J36"/>
     <mergeCell ref="K35:K36"/>
     <mergeCell ref="L35:L36"/>
-    <mergeCell ref="H17:H18"/>
-    <mergeCell ref="I17:I18"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E15:N15"/>
-    <mergeCell ref="E16:F18"/>
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="L16:L18"/>
-    <mergeCell ref="M16:M18"/>
-    <mergeCell ref="N16:N18"/>
-    <mergeCell ref="G17:G18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
